--- a/TestSuites/Example.xlsx
+++ b/TestSuites/Example.xlsx
@@ -24,6 +24,18 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -149,7 +161,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2018-04-11 13:06:47</t>
+    <t>2018-04-25 04:37:05</t>
   </si>
   <si>
     <t>Search box</t>
@@ -185,7 +197,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2018-04-11 13:06:50</t>
+    <t>2018-04-25 04:37:08</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -257,7 +269,7 @@
     <t>https://boshuwan.com/contact/</t>
   </si>
   <si>
-    <t>2018-04-11 13:07:00</t>
+    <t>2018-04-25 04:37:17</t>
   </si>
   <si>
     <t>tag_name</t>
@@ -284,7 +296,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2018-04-11 13:07:05</t>
+    <t>2018-04-25 04:37:24</t>
   </si>
   <si>
     <t>user-agent</t>
